--- a/cards.xlsx
+++ b/cards.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="343">
   <si>
     <t>id</t>
   </si>
@@ -451,6 +451,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>科学划定自然保护地保护范围及功能分区 ，构建以_____为主体 、</t>
     </r>
     <r>
@@ -461,7 +467,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>为基础 、</t>
     </r>
@@ -471,7 +476,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 为补充的自然保护地体系。</t>
     </r>
@@ -746,6 +750,345 @@
   </si>
   <si>
     <t>指好像对，实际上并不对，强调表面相似实质不同</t>
+  </si>
+  <si>
+    <t>诱发</t>
+  </si>
+  <si>
+    <t>导致（某种情况）发生，常与疾病、问题、冲突等搭配，如“诱发战争”，非常贴切。</t>
+  </si>
+  <si>
+    <t>g12</t>
+  </si>
+  <si>
+    <t>激发</t>
+  </si>
+  <si>
+    <t>指刺激使奋发，是中性或偏褒义的词（如激发斗志）</t>
+  </si>
+  <si>
+    <t>发动</t>
+  </si>
+  <si>
+    <t>指使开始，通常接具体行动（如发动战争、发动进攻）</t>
+  </si>
+  <si>
+    <t>煽动</t>
+  </si>
+  <si>
+    <t>指鼓动别人去做坏事，带有强烈的主观恶意，通常是人为主语（如煽动情绪）</t>
+  </si>
+  <si>
+    <t>消弭</t>
+  </si>
+  <si>
+    <t>消除（坏事），是消除战争、灾祸等的常用书面语，如“消弭战乱”、“消弭隐患”，词义精准，语体庄重。</t>
+  </si>
+  <si>
+    <t>运营</t>
+  </si>
+  <si>
+    <t>特指 （车、船、飞机、桥梁、工厂等） 有组织地投入工作或营业。这是描述像港珠澳大桥这样大型交通基础设施正式投入使用的最标准、最专业的词语。</t>
+  </si>
+  <si>
+    <t>g13</t>
+  </si>
+  <si>
+    <t>运行</t>
+  </si>
+  <si>
+    <t>多指（星球、车辆、机器等）周而复始地运转，强调运动状态，不能准确体现大型工程从建设完成到投入公共使用的“开通”含义</t>
+  </si>
+  <si>
+    <t>运转</t>
+  </si>
+  <si>
+    <t>指（机器、机构等）进行工作，偏重机械或组织的内部活动。</t>
+  </si>
+  <si>
+    <t>运载</t>
+  </si>
+  <si>
+    <t>指装载和运送，是“运营”过程中的具体功能，不能概括其整体投入使用这一事件。</t>
+  </si>
+  <si>
+    <t>恢弘</t>
+  </si>
+  <si>
+    <t>宽阔、广大；发扬”，常与“气势”、“画卷”、“乐章”等搭配，如“气势恢宏”。它不仅能形容规模大，更能体现一种磅礴、豪迈的气度，与“谱写时代变迁”的语境完美契合，是文学性很强的褒义词。</t>
+  </si>
+  <si>
+    <t>g14</t>
+  </si>
+  <si>
+    <t>宏伟</t>
+  </si>
+  <si>
+    <t>形容（规模、计划等）宏大雄伟，常形容具体建筑或蓝图，如“宏伟的建筑”，与抽象的“乐章”搭配略显生硬。</t>
+  </si>
+  <si>
+    <t>宏大</t>
+  </si>
+  <si>
+    <t>形容巨大、宏伟，可以形容规模，但文学色彩和气势不如“恢宏”强烈。“恢宏乐章”是比“宏大乐章”更常见、更优美的固定搭配。</t>
+  </si>
+  <si>
+    <t>壮丽</t>
+  </si>
+  <si>
+    <t>雄壮美丽，常用于山河景象</t>
+  </si>
+  <si>
+    <t>华丽</t>
+  </si>
+  <si>
+    <t>偏重装饰精美、绚烂</t>
+  </si>
+  <si>
+    <t>源远流长</t>
+  </si>
+  <si>
+    <t>形容事物（历史、文化、传统等）的起源久远，延续很长。  主语必须是那个“有源头、能流淌”的抽象事物本身。  例：中华文化源远流长。这条河的文明源远流长。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咂舌攒眉 </t>
+  </si>
+  <si>
+    <t>带有惊讶并为难的表情</t>
+  </si>
+  <si>
+    <t>对冲</t>
+  </si>
+  <si>
+    <t>金融经济术语，专门用于“以确定性对冲不确定性”，非常精准</t>
+  </si>
+  <si>
+    <t>投鼠忌器</t>
+  </si>
+  <si>
+    <t>因为外在客观条件的制约而有所顾虑不敢做</t>
+  </si>
+  <si>
+    <t>g15</t>
+  </si>
+  <si>
+    <t>畏手畏脚</t>
+  </si>
+  <si>
+    <t>因为自己主观上顾虑多而不敢做。</t>
+  </si>
+  <si>
+    <t>扛鼎_刚</t>
+  </si>
+  <si>
+    <t>指举鼎，常用来比喻有大才，能负重任，也比喻攘夺国家政权</t>
+  </si>
+  <si>
+    <t>g16</t>
+  </si>
+  <si>
+    <t>比肩</t>
+  </si>
+  <si>
+    <t>并肩，也比喻地位相等</t>
+  </si>
+  <si>
+    <t>鼎峙</t>
+  </si>
+  <si>
+    <t>三方面对立，并立的意思</t>
+  </si>
+  <si>
+    <t>媲美</t>
+  </si>
+  <si>
+    <t>美好的程度不相上下的意思</t>
+  </si>
+  <si>
+    <t>南辕北辙</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 行动与目的相反，越做离目标越远 同一个主体的做法与目标矛盾</t>
+  </si>
+  <si>
+    <t>g17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">背道而驰 </t>
+  </si>
+  <si>
+    <t>方向或原则相反，多用于两者比较 人与理念、两个事物发展方向相反</t>
+  </si>
+  <si>
+    <t xml:space="preserve">缘木求鱼 </t>
+  </si>
+  <si>
+    <t>方法根本、方向错误，不可能成功 手段与目的不符，徒劳无功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分道扬镳 </t>
+  </si>
+  <si>
+    <t>因目标不同而分开 合作关系结束，各自发展</t>
+  </si>
+  <si>
+    <t>等量齐观</t>
+  </si>
+  <si>
+    <t>把有差别的事物不加区别地同等看待</t>
+  </si>
+  <si>
+    <t>碧海青天</t>
+  </si>
+  <si>
+    <t>指夜空或仙境，也可以比喻遥远的事物，但与“探月”不一定直接对应。</t>
+  </si>
+  <si>
+    <t>g18太空</t>
+  </si>
+  <si>
+    <t>浩瀚苍穹</t>
+  </si>
+  <si>
+    <t>广阔的苍穹、天空，可以泛指宇宙，符合“拉近距离”的对象。</t>
+  </si>
+  <si>
+    <t>星辰大海</t>
+  </si>
+  <si>
+    <t>现多比喻远大理想、太空探索，与探月非常匹配，常出现在航天语境。</t>
+  </si>
+  <si>
+    <t>蟾宫折桂</t>
+  </si>
+  <si>
+    <t>比喻科举及第、考中状元，与太空无关，排除。</t>
+  </si>
+  <si>
+    <t>莫衷一是</t>
+  </si>
+  <si>
+    <t>意见分歧，难有一致的定论</t>
+  </si>
+  <si>
+    <t>目睫之论</t>
+  </si>
+  <si>
+    <t>比喻肤浅的见解</t>
+  </si>
+  <si>
+    <t>水陆毕陈</t>
+  </si>
+  <si>
+    <t>水里和陆上的美味都摆出来了，特指筵席丰盛</t>
+  </si>
+  <si>
+    <t>心旌摇荡</t>
+  </si>
+  <si>
+    <t>心神摇摆不定，多指感情波动，常因外界影响，与“旨趣深厚”带来的持久向往不同，且略有轻浮感</t>
+  </si>
+  <si>
+    <t>g19</t>
+  </si>
+  <si>
+    <t>心驰神往</t>
+  </si>
+  <si>
+    <t>心神飞到向往的地方，常用“令人心驰神往”，很贴切。</t>
+  </si>
+  <si>
+    <t>心旷神怡</t>
+  </si>
+  <si>
+    <t>心情舒畅，精神愉快，多指景色或环境带来的感受，与“旨趣深厚”的“向往”感不完全一致。</t>
+  </si>
+  <si>
+    <t>春风化雨</t>
+  </si>
+  <si>
+    <t>比喻良好的教育潜移默化，与“滋润”语义重复，且“在春风化雨中”一般作状语指方式，这里需要表达一种状态（如“在长久传承中”）。</t>
+  </si>
+  <si>
+    <t>连类比物</t>
+  </si>
+  <si>
+    <t>指联系类似的事物进行比较</t>
+  </si>
+  <si>
+    <t>知人论世</t>
+  </si>
+  <si>
+    <t>是一个完整的研究方法，指了解作者并研究其所处的时代背景</t>
+  </si>
+  <si>
+    <t>兼权尚计</t>
+  </si>
+  <si>
+    <t>指全面衡量、比较，深思熟虑</t>
+  </si>
+  <si>
+    <t>综核名实</t>
+  </si>
+  <si>
+    <t>指综合考核名称与实际是否相符</t>
+  </si>
+  <si>
+    <t>蔚为大观</t>
+  </si>
+  <si>
+    <t>形容事物丰富多彩，形成盛大景象</t>
+  </si>
+  <si>
+    <t>g20</t>
+  </si>
+  <si>
+    <t>叹为观止</t>
+  </si>
+  <si>
+    <t>指赞美看到的事物好到极点。通常用作谓语，如“令人叹为观止”，很少直接作定语修饰名词（如“叹为观止的千种名著”），且它更强调事物本身的精彩程度，而非规模或气象。</t>
+  </si>
+  <si>
+    <t>洋洋大观</t>
+  </si>
+  <si>
+    <t>形容美好的事物繁多，丰富多彩</t>
+  </si>
+  <si>
+    <t>举足轻重</t>
+  </si>
+  <si>
+    <t>比喻所处地位重要，一举一动都会影响全局。中性</t>
+  </si>
+  <si>
+    <t>g21</t>
+  </si>
+  <si>
+    <t>举重若轻</t>
+  </si>
+  <si>
+    <t>能力强，处理繁杂事务轻松自如。褒义</t>
+  </si>
+  <si>
+    <t>人言籍籍</t>
+  </si>
+  <si>
+    <t>形容人们议论纷纷（多含贬义）。</t>
+  </si>
+  <si>
+    <t>g22</t>
+  </si>
+  <si>
+    <t>众口铄金</t>
+  </si>
+  <si>
+    <t>原意是众口一词，连金属都能熔化。比喻舆论力量强大，众口一词可以混淆是非，甚至能熔化金属（比喻毁灭性的力量）。</t>
+  </si>
+  <si>
+    <t>三人成虎</t>
+  </si>
+  <si>
+    <t>比喻说的人多了，就能使人们把谣言当作事实。它侧重于谣言经过多人传播后会被误信，核心是“以讹传讹导致信以为真”。</t>
   </si>
 </sst>
 </file>
@@ -758,7 +1101,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -911,13 +1254,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1237,7 +1585,7 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1385,7 +1733,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1414,9 +1762,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1955,18 +2300,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F203"/>
+  <dimension ref="A1:F205"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="168" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.90384615384615" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9.23076923076923" style="2"/>
-    <col min="2" max="2" width="18.1538461538462" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21.8173076923077" style="3" customWidth="1"/>
     <col min="3" max="3" width="37.0961538461538" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.2403846153846" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.2403846153846" style="2" customWidth="1"/>
     <col min="5" max="5" width="26.9134615384615" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2000,7 +2345,7 @@
       <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="10"/>
@@ -2018,7 +2363,7 @@
       <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="10"/>
@@ -2036,7 +2381,7 @@
       <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="10"/>
@@ -2054,7 +2399,7 @@
       <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="10"/>
@@ -2072,7 +2417,7 @@
       <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="10"/>
@@ -2087,7 +2432,7 @@
       <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="10"/>
@@ -2102,7 +2447,7 @@
       <c r="C8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="10"/>
@@ -2117,12 +2462,12 @@
       <c r="C9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" ht="68" spans="1:5">
+    <row r="10" ht="37" customHeight="1" spans="1:5">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2132,7 +2477,7 @@
       <c r="C10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="10"/>
@@ -2147,7 +2492,7 @@
       <c r="C11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="10"/>
@@ -2162,7 +2507,7 @@
       <c r="C12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="10"/>
@@ -2177,7 +2522,7 @@
       <c r="C13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="10"/>
@@ -2192,7 +2537,7 @@
       <c r="C14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="10"/>
@@ -2207,12 +2552,12 @@
       <c r="C15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" ht="68" spans="1:5">
+    <row r="16" ht="51" spans="1:5">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2222,7 +2567,7 @@
       <c r="C16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="10"/>
@@ -2237,7 +2582,7 @@
       <c r="C17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E17" s="10"/>
@@ -2252,7 +2597,7 @@
       <c r="C18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="10"/>
@@ -2267,7 +2612,7 @@
       <c r="C19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="10"/>
@@ -2282,7 +2627,7 @@
       <c r="C20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E20" s="10"/>
@@ -2297,7 +2642,7 @@
       <c r="C21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E21" s="10"/>
@@ -2312,7 +2657,7 @@
       <c r="C22" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E22" s="10"/>
@@ -2327,7 +2672,7 @@
       <c r="C23" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E23" s="10"/>
@@ -2342,7 +2687,7 @@
       <c r="C24" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E24" s="10"/>
@@ -2357,7 +2702,7 @@
       <c r="C25" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E25" s="10"/>
@@ -2372,7 +2717,7 @@
       <c r="C26" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E26" s="10"/>
@@ -2387,7 +2732,7 @@
       <c r="C27" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E27" s="10"/>
@@ -2402,12 +2747,12 @@
       <c r="C28" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" ht="68" spans="1:5">
+    <row r="29" ht="51" spans="1:5">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2417,7 +2762,7 @@
       <c r="C29" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E29" s="10"/>
@@ -2432,7 +2777,7 @@
       <c r="C30" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E30" s="10"/>
@@ -2447,12 +2792,12 @@
       <c r="C31" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E31" s="10"/>
     </row>
-    <row r="32" ht="84" spans="1:5">
+    <row r="32" ht="68" spans="1:5">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2462,7 +2807,7 @@
       <c r="C32" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E32" s="10"/>
@@ -2477,7 +2822,7 @@
       <c r="C33" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2491,7 +2836,7 @@
       <c r="C34" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2505,11 +2850,11 @@
       <c r="C35" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="36" ht="51" spans="1:4">
+    <row r="36" ht="34" spans="1:4">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2519,11 +2864,11 @@
       <c r="C36" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="37" ht="51" spans="1:4">
+    <row r="37" ht="34" spans="1:4">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2533,11 +2878,11 @@
       <c r="C37" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" ht="68" spans="1:4">
+    <row r="38" ht="51" spans="1:4">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2547,7 +2892,7 @@
       <c r="C38" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2561,11 +2906,11 @@
       <c r="C39" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="40" ht="51" spans="1:4">
+    <row r="40" ht="34" spans="1:4">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2575,11 +2920,11 @@
       <c r="C40" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="41" ht="118" spans="1:4">
+    <row r="41" ht="101" spans="1:4">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -2589,7 +2934,7 @@
       <c r="C41" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2603,7 +2948,7 @@
       <c r="C42" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2617,7 +2962,7 @@
       <c r="C43" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2631,11 +2976,11 @@
       <c r="C44" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="45" ht="101" spans="1:4">
+    <row r="45" ht="84" spans="1:4">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -2645,11 +2990,11 @@
       <c r="C45" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="46" ht="84" spans="1:4">
+    <row r="46" ht="68" spans="1:4">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -2659,11 +3004,11 @@
       <c r="C46" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" ht="84" spans="1:4">
+    <row r="47" ht="68" spans="1:4">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -2673,7 +3018,7 @@
       <c r="C47" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2687,11 +3032,11 @@
       <c r="C48" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="49" ht="51" spans="1:4">
+    <row r="49" ht="34" spans="1:4">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -2701,11 +3046,11 @@
       <c r="C49" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="50" ht="51" spans="1:4">
+    <row r="50" ht="34" spans="1:4">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -2715,7 +3060,7 @@
       <c r="C50" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2729,11 +3074,11 @@
       <c r="C51" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="52" ht="68" spans="1:4">
+    <row r="52" ht="51" spans="1:4">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -2743,7 +3088,7 @@
       <c r="C52" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2757,11 +3102,11 @@
       <c r="C53" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="54" ht="68" spans="1:4">
+    <row r="54" ht="51" spans="1:4">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -2771,7 +3116,7 @@
       <c r="C54" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2785,7 +3130,7 @@
       <c r="C55" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2799,7 +3144,7 @@
       <c r="C56" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2813,7 +3158,7 @@
       <c r="C57" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2827,11 +3172,11 @@
       <c r="C58" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="59" ht="68" spans="1:4">
+    <row r="59" ht="51" spans="1:4">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -2841,7 +3186,7 @@
       <c r="C59" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2855,7 +3200,7 @@
       <c r="C60" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2869,7 +3214,7 @@
       <c r="C61" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2883,11 +3228,11 @@
       <c r="C62" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="63" ht="101" spans="1:4">
+    <row r="63" ht="84" spans="1:4">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -2897,7 +3242,7 @@
       <c r="C63" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2911,7 +3256,7 @@
       <c r="C64" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2925,11 +3270,11 @@
       <c r="C65" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="66" ht="101" spans="1:4">
+    <row r="66" ht="84" spans="1:4">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -2939,11 +3284,11 @@
       <c r="C66" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="67" ht="101" spans="1:4">
+    <row r="67" ht="84" spans="1:4">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -2953,7 +3298,7 @@
       <c r="C67" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2967,11 +3312,11 @@
       <c r="C68" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" ht="68" spans="1:4">
+    <row r="69" ht="51" spans="1:4">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -2981,7 +3326,7 @@
       <c r="C69" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2995,7 +3340,7 @@
       <c r="C70" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3009,11 +3354,11 @@
       <c r="C71" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="72" ht="51" spans="1:4">
+    <row r="72" ht="34" spans="1:4">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -3023,7 +3368,7 @@
       <c r="C72" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3037,11 +3382,11 @@
       <c r="C73" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="74" ht="168" spans="1:4">
+    <row r="74" ht="135" spans="1:4">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -3051,7 +3396,7 @@
       <c r="C74" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3065,7 +3410,7 @@
       <c r="C75" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3079,7 +3424,7 @@
       <c r="C76" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3093,7 +3438,7 @@
       <c r="C77" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3107,7 +3452,7 @@
       <c r="C78" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3121,7 +3466,7 @@
       <c r="C79" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3135,7 +3480,7 @@
       <c r="C80" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3149,7 +3494,7 @@
       <c r="C81" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3163,7 +3508,7 @@
       <c r="C82" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3177,7 +3522,7 @@
       <c r="C83" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3188,10 +3533,10 @@
       <c r="B84" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C84" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F84" t="s">
@@ -3208,7 +3553,7 @@
       <c r="C85" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F85" t="s">
@@ -3222,10 +3567,10 @@
       <c r="B86" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C86" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="2" t="s">
         <v>179</v>
       </c>
       <c r="F86" t="s">
@@ -3239,10 +3584,10 @@
       <c r="B87" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C87" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="2" t="s">
         <v>179</v>
       </c>
       <c r="F87" t="s">
@@ -3256,10 +3601,10 @@
       <c r="B88" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C88" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="2" t="s">
         <v>179</v>
       </c>
       <c r="F88" t="s">
@@ -3273,10 +3618,10 @@
       <c r="B89" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C89" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="2" t="s">
         <v>179</v>
       </c>
       <c r="F89" t="s">
@@ -3290,10 +3635,10 @@
       <c r="B90" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C90" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="2" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3304,10 +3649,10 @@
       <c r="B91" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C91" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F91" t="s">
@@ -3321,10 +3666,10 @@
       <c r="B92" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="C92" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F92" t="s">
@@ -3338,10 +3683,10 @@
       <c r="B93" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C93" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F93" t="s">
@@ -3355,10 +3700,10 @@
       <c r="B94" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C94" s="11" t="s">
+      <c r="C94" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F94" t="s">
@@ -3372,10 +3717,10 @@
       <c r="B95" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C95" s="11" t="s">
+      <c r="C95" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F95" t="s">
@@ -3389,10 +3734,10 @@
       <c r="B96" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C96" s="11" t="s">
+      <c r="C96" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F96" t="s">
@@ -3406,10 +3751,10 @@
       <c r="B97" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C97" s="11" t="s">
+      <c r="C97" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3420,10 +3765,10 @@
       <c r="B98" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C98" s="11" t="s">
+      <c r="C98" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3434,10 +3779,10 @@
       <c r="B99" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C99" s="11" t="s">
+      <c r="C99" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3448,10 +3793,10 @@
       <c r="B100" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C100" s="11" t="s">
+      <c r="C100" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F100" t="s">
@@ -3465,10 +3810,10 @@
       <c r="B101" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C101" s="11" t="s">
+      <c r="C101" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F101" t="s">
@@ -3482,10 +3827,10 @@
       <c r="B102" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C102" s="11" t="s">
+      <c r="C102" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F102" t="s">
@@ -3499,10 +3844,10 @@
       <c r="B103" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="C103" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D103" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F103" t="s">
@@ -3516,10 +3861,10 @@
       <c r="B104" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C104" s="11" t="s">
+      <c r="C104" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D104" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F104" t="s">
@@ -3533,10 +3878,10 @@
       <c r="B105" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C105" s="11" t="s">
+      <c r="C105" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D105" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F105" t="s">
@@ -3550,10 +3895,10 @@
       <c r="B106" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C106" s="11" t="s">
+      <c r="C106" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D106" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F106" t="s">
@@ -3567,505 +3912,1075 @@
       <c r="B107" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C107" s="11" t="s">
+      <c r="C107" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="D107" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="D107" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" ht="51" spans="1:6">
       <c r="A108" s="2">
         <v>107</v>
       </c>
-      <c r="C108" s="11"/>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="B108" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F108" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="109" ht="34" spans="1:6">
       <c r="A109" s="2">
         <v>108</v>
       </c>
-      <c r="C109" s="11"/>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="B109" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F109" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="110" ht="34" spans="1:6">
       <c r="A110" s="2">
         <v>109</v>
       </c>
-      <c r="C110" s="11"/>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="B110" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F110" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="111" ht="51" spans="1:6">
       <c r="A111" s="2">
         <v>110</v>
       </c>
-      <c r="C111" s="11"/>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="B111" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F111" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="112" ht="51" spans="1:4">
       <c r="A112" s="2">
         <v>111</v>
       </c>
-      <c r="C112" s="11"/>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="B112" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="113" ht="84" spans="1:6">
       <c r="A113" s="2">
         <v>112</v>
       </c>
-      <c r="C113" s="11"/>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="B113" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F113" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="114" ht="68" spans="1:6">
       <c r="A114" s="2">
         <v>113</v>
       </c>
-      <c r="C114" s="11"/>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="B114" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F114" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="115" ht="34" spans="1:6">
       <c r="A115" s="2">
         <v>114</v>
       </c>
-      <c r="C115" s="11"/>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="B115" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F115" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="116" ht="51" spans="1:6">
       <c r="A116" s="2">
         <v>115</v>
       </c>
-      <c r="C116" s="11"/>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="B116" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F116" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="117" ht="101" spans="1:6">
       <c r="A117" s="2">
         <v>116</v>
       </c>
-      <c r="C117" s="11"/>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="B117" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F117" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="118" ht="51" spans="1:6">
       <c r="A118" s="2">
         <v>117</v>
       </c>
-      <c r="C118" s="11"/>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="B118" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F118" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="119" ht="68" spans="1:6">
       <c r="A119" s="2">
         <v>118</v>
       </c>
-      <c r="C119" s="11"/>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="2">
+      <c r="B119" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F119" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="120" ht="17" spans="2:6">
+      <c r="B120" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F120" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="121" ht="17" spans="2:6">
+      <c r="B121" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F121" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="122" ht="84" spans="1:4">
+      <c r="A122" s="2">
         <v>119</v>
       </c>
-      <c r="C120" s="11"/>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="2">
+      <c r="B122" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" ht="17" spans="1:3">
+      <c r="A123" s="2">
         <v>120</v>
       </c>
-      <c r="C121" s="11"/>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="2">
+      <c r="B123" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="124" ht="34" spans="1:4">
+      <c r="A124" s="2">
         <v>121</v>
       </c>
-      <c r="C122" s="11"/>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="2">
+      <c r="B124" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125" ht="34" spans="1:6">
+      <c r="A125" s="2">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="2">
+      <c r="B125" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F125" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="126" ht="17" spans="1:6">
+      <c r="A126" s="2">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="2">
+      <c r="B126" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F126" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="127" ht="34" spans="1:6">
+      <c r="A127" s="2">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="2">
+      <c r="B127" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F127" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="128" ht="17" spans="1:6">
+      <c r="A128" s="2">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="2">
+      <c r="B128" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F128" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="129" ht="17" spans="1:6">
+      <c r="A129" s="2">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" s="2">
+      <c r="B129" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F129" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="130" ht="17" spans="1:6">
+      <c r="A130" s="2">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="2">
+      <c r="B130" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F130" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="131" ht="34" spans="1:6">
+      <c r="A131" s="2">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="2">
+      <c r="B131" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F131" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="132" ht="34" spans="1:6">
+      <c r="A132" s="2">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="2">
+      <c r="B132" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F132" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="133" ht="34" spans="1:6">
+      <c r="A133" s="2">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" s="2">
+      <c r="B133" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F133" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="134" ht="34" spans="1:6">
+      <c r="A134" s="2">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="2">
+      <c r="B134" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F134" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="135" ht="17" spans="1:4">
+      <c r="A135" s="2">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" s="2">
+      <c r="B135" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" ht="34" spans="1:6">
+      <c r="A136" s="2">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" s="2">
+      <c r="B136" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F136" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="137" ht="34" spans="1:6">
+      <c r="A137" s="2">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" s="2">
+      <c r="B137" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F137" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="138" ht="34" spans="1:6">
+      <c r="A138" s="2">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" s="2">
+      <c r="B138" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F138" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="139" ht="34" spans="1:6">
+      <c r="A139" s="2">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" s="2">
+      <c r="B139" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F139" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="140" ht="17" spans="1:4">
+      <c r="A140" s="2">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" s="2">
+      <c r="B140" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" ht="17" spans="1:4">
+      <c r="A141" s="2">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" s="2">
+      <c r="B141" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" ht="34" spans="1:4">
+      <c r="A142" s="2">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" s="2">
+      <c r="B142" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" ht="51" spans="1:6">
+      <c r="A143" s="2">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" s="2">
+      <c r="B143" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F143" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="144" ht="34" spans="1:6">
+      <c r="A144" s="2">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" s="2">
+      <c r="B144" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F144" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="145" ht="51" spans="1:6">
+      <c r="A145" s="2">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" s="2">
+      <c r="B145" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F145" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="146" ht="68" spans="1:4">
+      <c r="A146" s="2">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" s="2">
+      <c r="B146" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" ht="17" spans="1:4">
+      <c r="A147" s="2">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" s="2">
+      <c r="B147" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" ht="34" spans="1:4">
+      <c r="A148" s="2">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" s="2">
+      <c r="B148" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" ht="17" spans="1:4">
+      <c r="A149" s="2">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" s="2">
+      <c r="B149" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" ht="17" spans="1:4">
+      <c r="A150" s="2">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="2">
+      <c r="B150" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" ht="17" spans="1:6">
+      <c r="A151" s="2">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" s="2">
+      <c r="B151" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F151" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="152" ht="84" spans="1:6">
+      <c r="A152" s="2">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" s="2">
+      <c r="B152" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F152" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="153" ht="17" spans="1:4">
+      <c r="A153" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" s="2">
+      <c r="B153" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" ht="34" spans="1:6">
+      <c r="A154" s="2">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" s="2">
+      <c r="B154" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F154" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="155" ht="34" spans="1:6">
+      <c r="A155" s="2">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" s="2">
+      <c r="B155" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F155" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="156" ht="17" spans="1:6">
+      <c r="A156" s="2">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" s="2">
+      <c r="B156" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F156" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="157" ht="68" spans="1:6">
+      <c r="A157" s="2">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" s="2">
+      <c r="B157" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F157" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="158" ht="68" spans="1:6">
+      <c r="A158" s="2">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" s="2">
+      <c r="B158" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F158" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="2">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" s="2">
+      <c r="C159" s="10"/>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="2">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" s="2">
+      <c r="C160" s="10"/>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="2">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" s="2">
+      <c r="C161" s="10"/>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="2">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" s="2">
+      <c r="C162" s="10"/>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="2">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" s="2">
+      <c r="C163" s="10"/>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="2">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" s="2">
+      <c r="C164" s="10"/>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="2">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" s="2">
+      <c r="C165" s="10"/>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="2">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" s="2">
+      <c r="C166" s="10"/>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="2">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" s="2">
+      <c r="C167" s="10"/>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="2">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" s="2">
+      <c r="C168" s="10"/>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="2">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" s="2">
+      <c r="C169" s="10"/>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="2">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" s="2">
+      <c r="C170" s="10"/>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="2">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" s="2">
+      <c r="C171" s="10"/>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="2">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" s="2">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" s="2">
-        <v>171</v>
-      </c>
+      <c r="C172" s="10"/>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="2">
         <v>202</v>
       </c>
     </row>

--- a/cards.xlsx
+++ b/cards.xlsx
@@ -1067,7 +1067,7 @@
     <t>举重若轻</t>
   </si>
   <si>
-    <t>能力强，处理繁杂事务轻松自如。褒义</t>
+    <t>能力强，处理繁杂事务轻松自如。褒义。</t>
   </si>
   <si>
     <t>人言籍籍</t>
@@ -2302,8 +2302,8 @@
   <sheetPr/>
   <dimension ref="A1:F205"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="168" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="C147" sqref="C147"/>
+    <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="168" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="C155" sqref="C155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.90384615384615" defaultRowHeight="16.8" outlineLevelCol="5"/>
